--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1972161.037818512</v>
+        <v>2019855.550860394</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5846019.500412716</v>
+        <v>5922975.008726668</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>192.0059046618771</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>75.79903779981326</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>29.41206276533559</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,7 +874,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>421.457806764222</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4291174559667</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>55.26522771132768</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>243.8398845373353</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>373.4383368904548</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>150.7383063660856</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>9.476914564935774</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.64034175572425</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>26.70160847752037</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,10 +1588,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>225.021777646659</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>71.43430199953193</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>53.06991172717003</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>54.18430635300773</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>39.88404672003886</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193455</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>136.0564930767008</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655109</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>24.62703520776685</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2321,7 +2321,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.550686977299</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>239.7909713904978</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>98.98021706930226</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>123.2901323038664</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>49.17722654850338</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3095,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3266,25 +3266,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3323,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,10 +3484,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>125.171654445483</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3509,7 +3509,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.436997393288</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>35.47248331510087</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,7 +3797,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>352.6027540028057</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="42">
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>153.2006427344279</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.6623007436927</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4043,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>393.2348308640065</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4135,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>111.9183464525223</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,7 +4147,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4189,13 +4189,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.4987273237359</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>562.9170530610043</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>134.3353787982726</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
         <v>57.77069415199655</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y2" t="n">
-        <v>1013.75789376824</v>
+        <v>347.4218427589417</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236.2145344268032</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>63.65282291002814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1172.870982911978</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>900.8445784982696</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>655.4528238316821</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>428.0331531457903</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1773.70620687524</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>1739.604138099067</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5980855216599</v>
+        <v>1313.88918177157</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>880.1144369298654</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390732</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.128202908534</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1815.313152359972</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1800.211092979686</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1795.965373319744</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970919</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>614.4535569886666</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>441.8918454718915</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>276.0138526734142</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>106.2558489241515</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2362.377960771851</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2116.498514350306</v>
       </c>
       <c r="U7" t="n">
-        <v>1024.341879988165</v>
+        <v>1838.065513603411</v>
       </c>
       <c r="V7" t="n">
-        <v>1024.341879988165</v>
+        <v>1551.110005473842</v>
       </c>
       <c r="W7" t="n">
-        <v>1024.341879988165</v>
+        <v>1279.083601060133</v>
       </c>
       <c r="X7" t="n">
-        <v>1024.341879988165</v>
+        <v>1033.691846393546</v>
       </c>
       <c r="Y7" t="n">
-        <v>1024.341879988165</v>
+        <v>806.2721757076538</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.14448398095</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C8" t="n">
-        <v>863.562809718218</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>437.0247332457074</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>437.0247332457074</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>437.0247332457074</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1333.751429465681</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.649370085396</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1314.403650425453</v>
+        <v>2501.882800981281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>614.3767621236573</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>614.3767621236573</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>614.3767621236573</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>614.3767621236573</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>614.3767621236573</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.51439535199</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847292</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>516.962436093937</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172008</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1010.202862318824</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C13" t="n">
-        <v>837.6411508020491</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7631580035718</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>502.0051542543091</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>325.2981002160653</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415476</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1902.127631285906</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1674.832906390291</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1429.441151723703</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y13" t="n">
-        <v>1202.021481037811</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3598.448757555621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3598.448757555621</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3598.448757555621</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928796</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987275</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819526</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>633.6681025819526</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177147</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.80576642952</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945684</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548914</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781553</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137158</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742894</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953225</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953225</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953225</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523531</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356927</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315522</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252416</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.228631373588</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.006328690604</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.389378624431</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.533924035464</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.391460614775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.105336914428</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126643</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493066</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958599</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228136</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389752</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051591</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818292</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480415</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132067</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924275</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983026</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815277</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830504</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337877</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955439</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137158</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137158</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860614</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251581</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200624</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113047</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983478</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569769</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903182</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.89800421729</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,10 +5756,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710512</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167234</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.396843814755</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C28" t="n">
-        <v>968.8351322979798</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D28" t="n">
-        <v>802.9571394995025</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E28" t="n">
-        <v>633.1991357502399</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F28" t="n">
-        <v>456.4920817119961</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G28" t="n">
-        <v>290.9008067378238</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814755</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="32">
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,37 +6947,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882662</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674089</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181461</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799023</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.50262887895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755402</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008507</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.557290287541</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601649</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7184,19 +7184,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937635</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>790.3368563937635</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>624.4588635952862</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>454.7008598460234</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>277.9938058077796</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538672</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.58362889654</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054835</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640431</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.543623087307</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305232</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834411</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.018447941619</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410807</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410807</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981113</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814509</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773104</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.67342652616</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.67342652616</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399199</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716215</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733582</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.93545702358</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218159</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584583</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850284</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583478</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271524</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778894</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396457</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654733</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558479</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952131</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663486</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598648</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.88030356899</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2697.502628878953</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.831709731319</v>
+        <v>2538.261260176949</v>
       </c>
       <c r="T43" t="n">
-        <v>2403.083585757149</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U43" t="n">
-        <v>2403.083585757149</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.12807762758</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213871</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4533.079733112634</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4170.462783046461</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3765.607328457494</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3346.464865036805</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.8119928040994</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>784.8119928040994</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7631580035718</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>502.0051542543091</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>325.2981002160653</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.050282208978</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.6306115230866</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>369.8475292559658</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,16 +8933,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>527.9769957459444</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365285658</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.5985112554916</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>44.28436272291233</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>185.1957776566213</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>113.8761173587624</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>177.9825081356529</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.92021546249606</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>139.5921776627249</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3.146865729423865</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>39.52293549722697</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>175.9682474305294</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>117.7661826744386</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>128.4628789093297</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.388026562705963</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>90.22000922290135</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>102.986369995733</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.96843159933655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>52.30086641797021</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>500929.0276874211</v>
+        <v>507270.1888990588</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>500929.0276874211</v>
+        <v>508411.9289220215</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493655.6142329472</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493655.6142329472</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500621.5750552174</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>514488.4452627472</v>
+        <v>514488.4452627471</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>514488.4452627472</v>
+        <v>514488.4452627471</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>514488.4452627471</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507522.484440477</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493655.6142329474</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068474</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
+        <v>455725.2219068471</v>
+      </c>
+      <c r="D2" t="n">
         <v>455725.2219068473</v>
       </c>
-      <c r="D2" t="n">
-        <v>455725.2219068472</v>
-      </c>
       <c r="E2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>429695.3132759248</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="G2" t="n">
-        <v>435758.7320470131</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
         <v>447828.9465167495</v>
       </c>
       <c r="L2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="M2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="N2" t="n">
         <v>447828.9465167494</v>
       </c>
-      <c r="M2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="N2" t="n">
-        <v>447828.9465167493</v>
-      </c>
       <c r="O2" t="n">
-        <v>441765.5277456612</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="P2" t="n">
-        <v>429695.313275925</v>
+        <v>447828.9465167495</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042852287</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996165</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947851</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960743</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960742</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
-        <v>40014.57594554759</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
-        <v>41122.95192991276</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26445,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.9519299127</v>
       </c>
       <c r="O4" t="n">
-        <v>40566.16416397256</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.3448002424</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319763</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66544.6000541019</v>
+        <v>66544.60005410173</v>
       </c>
       <c r="C6" t="n">
-        <v>208735.9007138117</v>
+        <v>170446.0754090433</v>
       </c>
       <c r="D6" t="n">
-        <v>208735.9007138116</v>
+        <v>230601.3545562022</v>
       </c>
       <c r="E6" t="n">
-        <v>82363.16079663264</v>
+        <v>146609.422420612</v>
       </c>
       <c r="F6" t="n">
-        <v>316718.1828186698</v>
+        <v>328964.5316416617</v>
       </c>
       <c r="G6" t="n">
-        <v>314491.6002583709</v>
+        <v>328964.5316416617</v>
       </c>
       <c r="H6" t="n">
-        <v>316585.0010010825</v>
+        <v>328964.5316416617</v>
       </c>
       <c r="I6" t="n">
-        <v>328987.7559810441</v>
+        <v>328964.5316416617</v>
       </c>
       <c r="J6" t="n">
-        <v>217973.2906360541</v>
+        <v>217950.0662966714</v>
       </c>
       <c r="K6" t="n">
-        <v>328987.7559810443</v>
+        <v>275918.6770028891</v>
       </c>
       <c r="L6" t="n">
-        <v>328987.7559810443</v>
+        <v>319572.2299150393</v>
       </c>
       <c r="M6" t="n">
-        <v>133386.5766979766</v>
+        <v>176764.3607036741</v>
       </c>
       <c r="N6" t="n">
-        <v>328987.7559810441</v>
+        <v>328964.5316416616</v>
       </c>
       <c r="O6" t="n">
-        <v>324885.127498491</v>
+        <v>328964.5316416616</v>
       </c>
       <c r="P6" t="n">
-        <v>316718.1828186701</v>
+        <v>328964.5316416616</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267145</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.16835663154</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320534</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.9686481176004</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320534</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.9686481176004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>230.0306701181816</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>353.6379595934745</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>134.8071501051569</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>10.09288021307788</v>
       </c>
       <c r="E5" t="n">
-        <v>97.00787993732109</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>119.6747557865337</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>31.8087862020904</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>58.11235008684508</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27910,7 +27910,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>253.4649560972575</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>158.5835091468343</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>369.8475292559658</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35647,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>527.9769957459444</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37482,7 +37482,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.891691782153</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365285658</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37956,7 +37956,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821557</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
